--- a/biology/Botanique/Parc_Sant-Vincens/Parc_Sant-Vincens.xlsx
+++ b/biology/Botanique/Parc_Sant-Vincens/Parc_Sant-Vincens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Sant-Vincens est un parc situé dans la ville de Perpignan dans les Pyrénées-Orientales.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc se situe près du quartier Saint-Gaudérique à Sant-Vincens, à l'est de la ville.
 </t>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Sant-Vicens est un parc de 10 hectares créé en 2009 pour pouvoir partiellement se transformer en bassin de rétention en cas d’inondations[1]. 
-D'importants travaux ont eu lieu en 2007 et 2010 pour l'agrandir de 4 hectares, faisant de lui le plus grand parc de Perpignan[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Sant-Vicens est un parc de 10 hectares créé en 2009 pour pouvoir partiellement se transformer en bassin de rétention en cas d’inondations. 
+D'importants travaux ont eu lieu en 2007 et 2010 pour l'agrandir de 4 hectares, faisant de lui le plus grand parc de Perpignan.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il contient essentiellement des essences méditerranéennes, mais comporte aussi une prairie et un bassin peuplé de canards et de ragondins. 
-Le «jardin des feuillages», présentant plus de 100 variétés, est une garrigue plantée de cistes[3].
+Le «jardin des feuillages», présentant plus de 100 variétés, est une garrigue plantée de cistes.
 </t>
         </is>
       </c>
